--- a/biology/Botanique/Joseph_Hugues_Boissieu_La_Martinière/Joseph_Hugues_Boissieu_La_Martinière.xlsx
+++ b/biology/Botanique/Joseph_Hugues_Boissieu_La_Martinière/Joseph_Hugues_Boissieu_La_Martinière.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Joseph_Hugues_Boissieu_La_Martini%C3%A8re</t>
+          <t>Joseph_Hugues_Boissieu_La_Martinière</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Joseph Hughes (ou Hugues) de Boissieu de La Martinière (aussi appelé Joseph La Martinière), né le 26 janvier 1758 à Saint-Marcellin, disparu dans l’océan Pacifique en 1788, était un botaniste et biologiste français. Il a participé à l'expédition de Jean-François de La Pérouse en 1785 et disparu avec lui dans le Pacifique en 1788.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Joseph_Hugues_Boissieu_La_Martini%C3%A8re</t>
+          <t>Joseph_Hugues_Boissieu_La_Martinière</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Joseph de Boissieu de La Martinière est le fils de Jean Joseph de Boissieu (docteur en médecine de la faculté de Montpellier et consul de Saint-Marcellin) et de Anne François. Il est le frère de Pierre Joseph Didier de Boissieu (1754-1812), député non régicide à la Convention.
 Docteur en médecine, formé à la Faculté de Médecine de Montpellier, Joseph de Boissieu La Martinière se rend à Paris, où il devient le protégé d'André Thouin. Il obtient le poste de botaniste du roi.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Joseph_Hugues_Boissieu_La_Martini%C3%A8re</t>
+          <t>Joseph_Hugues_Boissieu_La_Martinière</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,16 +560,89 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Toponymes
-Deux rue portent son nom :
-rue La Martinière, à Saint-Marcellin (Isère)[1]
-rue Joseph de La Martinière, dans le nouveau quartier de la Rouvière Longue à Murviel-lès-Montpellier[2].
-Botanique
-Deux fleurs portent son nom (« Boissieu » latinisé) :
-La Bossiaea heterophylla[3]
-La Bossiaea prostrata[4]
-Zoologie
-Un monogène, parasite de poisson, de la famille des Capsalidae porte son nom « Martinière » latinisé : Capsala martinierei (Bosc, 1811).</t>
+          <t>Toponymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Deux rue portent son nom :
+rue La Martinière, à Saint-Marcellin (Isère)
+rue Joseph de La Martinière, dans le nouveau quartier de la Rouvière Longue à Murviel-lès-Montpellier.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Joseph_Hugues_Boissieu_La_Martinière</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Joseph_Hugues_Boissieu_La_Martini%C3%A8re</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Héritages</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Botanique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Deux fleurs portent son nom (« Boissieu » latinisé) :
+La Bossiaea heterophylla
+La Bossiaea prostrata</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Joseph_Hugues_Boissieu_La_Martinière</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Joseph_Hugues_Boissieu_La_Martini%C3%A8re</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Héritages</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Zoologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Un monogène, parasite de poisson, de la famille des Capsalidae porte son nom « Martinière » latinisé : Capsala martinierei (Bosc, 1811).</t>
         </is>
       </c>
     </row>
